--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\LearnAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gayathri\Desktop\SeleniumBesant\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE5282-F005-4E22-BC7D-DB849AA846FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0010C6C8-FB64-4B28-A8A7-EB3ADCFE7A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -33,82 +33,19 @@
     <t>UserName1</t>
   </si>
   <si>
-    <t>UserName2</t>
-  </si>
-  <si>
-    <t>UserName3</t>
-  </si>
-  <si>
-    <t>UserName4</t>
-  </si>
-  <si>
-    <t>UserName5</t>
-  </si>
-  <si>
-    <t>UserName6</t>
-  </si>
-  <si>
-    <t>UserName7</t>
-  </si>
-  <si>
-    <t>UserName8</t>
-  </si>
-  <si>
-    <t>UserName9</t>
-  </si>
-  <si>
-    <t>UserName10</t>
-  </si>
-  <si>
-    <t>UserName11</t>
-  </si>
-  <si>
-    <t>UserName12</t>
-  </si>
-  <si>
-    <t>UserName13</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Password1</t>
   </si>
   <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>Password3</t>
-  </si>
-  <si>
-    <t>Password4</t>
-  </si>
-  <si>
-    <t>Password5</t>
-  </si>
-  <si>
-    <t>Password6</t>
-  </si>
-  <si>
-    <t>Password7</t>
-  </si>
-  <si>
-    <t>Password8</t>
-  </si>
-  <si>
-    <t>Password9</t>
-  </si>
-  <si>
-    <t>Password10</t>
-  </si>
-  <si>
-    <t>Password11</t>
-  </si>
-  <si>
-    <t>Password12</t>
-  </si>
-  <si>
-    <t>Password13</t>
+    <t>http://demo.guru99.com/v1/</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>743276</t>
   </si>
 </sst>
 </file>
@@ -150,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,126 +370,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
